--- a/5. Autres/5.3 Modèle Magasin/M-TPI-LucaBohlen-ModeleMagasin.xlsx
+++ b/5. Autres/5.3 Modèle Magasin/M-TPI-LucaBohlen-ModeleMagasin.xlsx
@@ -734,7 +734,7 @@
   <dimension ref="A1:AE45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
